--- a/datasets/Tabla.xlsx
+++ b/datasets/Tabla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Camis Computer\Documents\Tec\5to semestre\Visualización de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B17FD5C2-1C02-46CF-B481-9A12F9D7DB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A8A1C9-1DC1-4211-8168-69F244BB849A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3B40ED81-228F-48AE-B612-B581BF34CEC9}"/>
   </bookViews>
@@ -94,8 +94,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,7 +416,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,7 +433,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
@@ -441,6 +444,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -449,7 +453,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
@@ -460,6 +464,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -468,7 +473,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
@@ -479,6 +484,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -487,7 +493,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
@@ -498,6 +504,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -506,6 +513,12 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/datasets/Tabla.xlsx
+++ b/datasets/Tabla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Camis Computer\Documents\Tec\5to semestre\Visualización de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A8A1C9-1DC1-4211-8168-69F244BB849A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF8585B-14EA-4D41-A6E0-DC6167E539F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3B40ED81-228F-48AE-B612-B581BF34CEC9}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
   <si>
     <t>Age</t>
   </si>
@@ -94,11 +94,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,7 +413,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,7 +430,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
@@ -444,7 +441,9 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -453,7 +452,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
@@ -464,7 +463,9 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -473,7 +474,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
@@ -484,7 +485,9 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -493,7 +496,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
@@ -504,7 +507,9 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -513,12 +518,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/datasets/Tabla.xlsx
+++ b/datasets/Tabla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Camis Computer\Documents\Tec\5to semestre\Visualización de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF8585B-14EA-4D41-A6E0-DC6167E539F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788ECC0F-C85B-4E1E-8C7A-0421A97B9E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3B40ED81-228F-48AE-B612-B581BF34CEC9}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>Age</t>
   </si>
@@ -59,6 +59,33 @@
   </si>
   <si>
     <t>Female</t>
+  </si>
+  <si>
+    <t>Age_sex</t>
+  </si>
+  <si>
+    <t>Male 21-30</t>
+  </si>
+  <si>
+    <t>Female 21-30</t>
+  </si>
+  <si>
+    <t>Male 31-40</t>
+  </si>
+  <si>
+    <t>Female 31-40</t>
+  </si>
+  <si>
+    <t>Male 41-50</t>
+  </si>
+  <si>
+    <t>Female 41-50</t>
+  </si>
+  <si>
+    <t>Male &lt;=20</t>
+  </si>
+  <si>
+    <t>Female &lt;=20</t>
   </si>
 </sst>
 </file>
@@ -410,15 +437,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB9C9092-53F3-4B41-85C0-D675C6E75E84}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -428,8 +455,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -439,8 +469,11 @@
       <c r="C2">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -450,8 +483,11 @@
       <c r="C3">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -461,8 +497,11 @@
       <c r="C4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -472,8 +511,11 @@
       <c r="C5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -483,8 +525,11 @@
       <c r="C6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -494,8 +539,11 @@
       <c r="C7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -505,8 +553,11 @@
       <c r="C8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -515,6 +566,9 @@
       </c>
       <c r="C9">
         <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
